--- a/config_12.15/game_module_config.xlsx
+++ b/config_12.15/game_module_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_12.08\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.15\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1164" uniqueCount="933">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1172" uniqueCount="940">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -3920,6 +3920,53 @@
   </si>
   <si>
     <t>永久</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_039_jzhhl</t>
+  </si>
+  <si>
+    <t>饺子换好礼</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_039_JZHHLManager</t>
+  </si>
+  <si>
+    <r>
+      <t>12月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>25</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>日23:59:59</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_039_jzsjb</t>
+  </si>
+  <si>
+    <t>Act_039_JZSJBManager</t>
+  </si>
+  <si>
+    <t>饺子收集榜</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -4085,7 +4132,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4216,6 +4263,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4495,13 +4548,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I306"/>
+  <dimension ref="A1:I308"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D284" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="D287" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E307" sqref="E307"/>
+      <selection pane="bottomRight" activeCell="J308" sqref="J308"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -12290,6 +12343,60 @@
       </c>
       <c r="I306" s="43" t="s">
         <v>932</v>
+      </c>
+    </row>
+    <row r="307" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A307" s="7">
+        <v>306</v>
+      </c>
+      <c r="B307" s="44" t="s">
+        <v>933</v>
+      </c>
+      <c r="C307" s="45" t="s">
+        <v>934</v>
+      </c>
+      <c r="D307" s="44" t="s">
+        <v>935</v>
+      </c>
+      <c r="E307" s="2">
+        <v>1</v>
+      </c>
+      <c r="F307" s="2">
+        <v>1</v>
+      </c>
+      <c r="G307" s="2">
+        <v>1</v>
+      </c>
+      <c r="H307" s="2"/>
+      <c r="I307" s="45" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="308" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A308" s="7">
+        <v>307</v>
+      </c>
+      <c r="B308" s="44" t="s">
+        <v>937</v>
+      </c>
+      <c r="C308" s="45" t="s">
+        <v>939</v>
+      </c>
+      <c r="D308" s="44" t="s">
+        <v>938</v>
+      </c>
+      <c r="E308" s="2">
+        <v>1</v>
+      </c>
+      <c r="F308" s="2">
+        <v>1</v>
+      </c>
+      <c r="G308" s="2">
+        <v>1</v>
+      </c>
+      <c r="H308" s="2"/>
+      <c r="I308" s="45" t="s">
+        <v>936</v>
       </c>
     </row>
   </sheetData>

--- a/config_12.15/game_module_config.xlsx
+++ b/config_12.15/game_module_config.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1172" uniqueCount="940">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1176" uniqueCount="943">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -3968,6 +3968,15 @@
   <si>
     <t>饺子收集榜</t>
     <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_039_ty_by_drop</t>
+  </si>
+  <si>
+    <t>Act_039_TYBYDROPManager</t>
+  </si>
+  <si>
+    <t>捕鱼通用掉落活动</t>
   </si>
 </sst>
 </file>
@@ -4548,13 +4557,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I308"/>
+  <dimension ref="A1:I309"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D287" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C287" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J308" sqref="J308"/>
+      <selection pane="bottomRight" activeCell="B310" sqref="B310"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -12261,13 +12270,13 @@
         <v>921</v>
       </c>
       <c r="E303" s="42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F303" s="42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G303" s="42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I303" s="43" t="s">
         <v>919</v>
@@ -12396,6 +12405,33 @@
       </c>
       <c r="H308" s="2"/>
       <c r="I308" s="45" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="309" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A309" s="7">
+        <v>308</v>
+      </c>
+      <c r="B309" s="44" t="s">
+        <v>940</v>
+      </c>
+      <c r="C309" s="44" t="s">
+        <v>942</v>
+      </c>
+      <c r="D309" s="44" t="s">
+        <v>941</v>
+      </c>
+      <c r="E309" s="2">
+        <v>1</v>
+      </c>
+      <c r="F309" s="2">
+        <v>1</v>
+      </c>
+      <c r="G309" s="2">
+        <v>1</v>
+      </c>
+      <c r="H309" s="2"/>
+      <c r="I309" s="45" t="s">
         <v>936</v>
       </c>
     </row>
